--- a/voltage calculator.xlsx
+++ b/voltage calculator.xlsx
@@ -981,7 +981,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="12.8888888888889"/>
+    <col min="1" max="3" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1000,15 +1000,19 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2039</v>
+        <v>3000</v>
       </c>
       <c r="B2">
         <f>A2*(3.3/4095)</f>
-        <v>1.64315018315018</v>
+        <v>2.41758241758242</v>
+      </c>
+      <c r="C2">
+        <f>B2*11</f>
+        <v>26.5934065934066</v>
       </c>
       <c r="D2">
         <f>(B2-1.65)*25</f>
-        <v>-0.17124542124542</v>
+        <v>19.1895604395604</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1025,14 +1029,14 @@
     <row r="6" spans="1:3">
       <c r="A6">
         <f>B6/(3.3/4095)</f>
-        <v>338.429752066116</v>
+        <v>2933.05785123967</v>
       </c>
       <c r="B6">
         <f>C6/11</f>
-        <v>0.272727272727273</v>
+        <v>2.36363636363636</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1049,14 +1053,14 @@
     <row r="8" spans="1:3">
       <c r="A8">
         <f>B8/(3.3/4095)</f>
-        <v>2202.61363636364</v>
+        <v>2357.72727272727</v>
       </c>
       <c r="B8">
         <f>(C8*0.005*25)+1.65</f>
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/voltage calculator.xlsx
+++ b/voltage calculator.xlsx
@@ -973,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N9" sqref="M9:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="12.8888888888889"/>
   </cols>
@@ -1026,17 +1026,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <f>B6/(3.3/4095)</f>
-        <v>2933.05785123967</v>
+        <v>451.239669421488</v>
       </c>
       <c r="B6">
         <f>C6/11</f>
-        <v>2.36363636363636</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>G6/(3.3/4095)</f>
+        <v>2047.5</v>
+      </c>
+      <c r="G6">
+        <v>1.65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1053,14 +1060,14 @@
     <row r="8" spans="1:3">
       <c r="A8">
         <f>B8/(3.3/4095)</f>
-        <v>2357.72727272727</v>
+        <v>961.704545454545</v>
       </c>
       <c r="B8">
         <f>(C8*0.005*25)+1.65</f>
-        <v>1.9</v>
+        <v>0.775</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/voltage calculator.xlsx
+++ b/voltage calculator.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="M9:N9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1029,14 +1029,14 @@
     <row r="6" spans="1:7">
       <c r="A6">
         <f>B6/(3.3/4095)</f>
-        <v>451.239669421488</v>
+        <v>11.2809917355372</v>
       </c>
       <c r="B6">
         <f>C6/11</f>
-        <v>0.363636363636364</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <f>G6/(3.3/4095)</f>

--- a/voltage calculator.xlsx
+++ b/voltage calculator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>12 bits value</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>autoreload</t>
+  </si>
+  <si>
+    <t>150 000 000</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/hbg200/p/4540676.html</t>
   </si>
 </sst>
 </file>
@@ -652,8 +667,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,18 +989,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="12.8888888888889"/>
+    <col min="14" max="14" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,25 +1014,71 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <f>A2*(3.3/4095)</f>
-        <v>2.41758241758242</v>
+        <v>0.402930402930403</v>
       </c>
       <c r="C2">
         <f>B2*11</f>
-        <v>26.5934065934066</v>
+        <v>4.43223443223443</v>
       </c>
       <c r="D2">
         <f>(B2-1.65)*25</f>
-        <v>19.1895604395604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-31.1767399267399</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>130</v>
+      </c>
+      <c r="N2">
+        <f>1500000/M2</f>
+        <v>11538.4615384615</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14">
+      <c r="L3">
+        <v>-2</v>
+      </c>
+      <c r="M3">
+        <v>146</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N23" si="0">1500000/M3</f>
+        <v>10273.9726027397</v>
+      </c>
+    </row>
+    <row r="4" spans="12:16">
+      <c r="L4">
+        <v>-3</v>
+      </c>
+      <c r="M4">
+        <v>164</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>9146.34146341463</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1025,18 +1088,31 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>174</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>8620.68965517241</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <f>B6/(3.3/4095)</f>
-        <v>11.2809917355372</v>
+        <v>451.239669421488</v>
       </c>
       <c r="B6">
         <f>C6/11</f>
-        <v>0.00909090909090909</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f>G6/(3.3/4095)</f>
@@ -1045,8 +1121,18 @@
       <c r="G6">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="L6">
+        <v>-5</v>
+      </c>
+      <c r="M6">
+        <v>195</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>7692.30769230769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1056,21 +1142,217 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="L7">
+        <v>-6</v>
+      </c>
+      <c r="M7">
+        <v>220</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>6818.18181818182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <f>B8/(3.3/4095)</f>
-        <v>961.704545454545</v>
+        <v>2047.5</v>
       </c>
       <c r="B8">
         <f>(C8*0.005*25)+1.65</f>
-        <v>0.775</v>
+        <v>1.65</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>-7</v>
       </c>
+      <c r="M8">
+        <v>246</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>6097.56097560976</v>
+      </c>
+    </row>
+    <row r="9" spans="12:14">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>261</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>5747.12643678161</v>
+      </c>
+    </row>
+    <row r="10" spans="12:14">
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>293</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>5119.45392491468</v>
+      </c>
+    </row>
+    <row r="11" spans="12:14">
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>329</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>4559.27051671733</v>
+      </c>
+    </row>
+    <row r="12" spans="12:14">
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>349</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>4297.99426934097</v>
+      </c>
+    </row>
+    <row r="13" spans="12:14">
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>391</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>3836.31713554987</v>
+      </c>
+    </row>
+    <row r="14" spans="12:14">
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>440</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>3409.09090909091</v>
+      </c>
+    </row>
+    <row r="15" spans="12:14">
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>493</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3042.59634888438</v>
+      </c>
+    </row>
+    <row r="16" spans="12:14">
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>523</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>2868.06883365201</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14">
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>587</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>2555.36626916525</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14">
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>659</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>2276.17602427921</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14">
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>698</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>2148.99713467049</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14">
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>783</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1915.70881226054</v>
+      </c>
+    </row>
+    <row r="21" spans="12:14">
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>880</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1704.54545454545</v>
+      </c>
+    </row>
+    <row r="22" spans="12:14">
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>988</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1518.21862348178</v>
+      </c>
+    </row>
+    <row r="23" spans="12:12">
+      <c r="L23" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L23" r:id="rId1" display="https://www.cnblogs.com/hbg200/p/4540676.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/voltage calculator.xlsx
+++ b/voltage calculator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>12 bits value</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>150 000 000</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>https://www.cnblogs.com/hbg200/p/4540676.html</t>
@@ -669,7 +672,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,7 +996,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1026,19 +1030,19 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="B2">
         <f>A2*(3.3/4095)</f>
-        <v>0.402930402930403</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="C2">
         <f>B2*11</f>
-        <v>4.43223443223443</v>
+        <v>6.20512820512821</v>
       </c>
       <c r="D2">
         <f>(B2-1.65)*25</f>
-        <v>-31.1767399267399</v>
+        <v>-27.1474358974359</v>
       </c>
       <c r="L2">
         <v>-1</v>
@@ -1105,14 +1109,14 @@
     <row r="6" spans="1:14">
       <c r="A6">
         <f>B6/(3.3/4095)</f>
-        <v>451.239669421488</v>
+        <v>2707.43801652893</v>
       </c>
       <c r="B6">
         <f>C6/11</f>
-        <v>0.363636363636364</v>
+        <v>2.18181818181818</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <f>G6/(3.3/4095)</f>
@@ -1139,8 +1143,8 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L7">
         <v>-6</v>
@@ -1156,14 +1160,14 @@
     <row r="8" spans="1:14">
       <c r="A8">
         <f>B8/(3.3/4095)</f>
-        <v>2047.5</v>
+        <v>496.363636363636</v>
       </c>
       <c r="B8">
         <f>(C8*0.005*25)+1.65</f>
-        <v>1.65</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L8">
         <v>-7</v>
@@ -1346,7 +1350,7 @@
     </row>
     <row r="23" spans="12:12">
       <c r="L23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
